--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1456.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1456.xlsx
@@ -360,7 +360,7 @@
         <v>3.313094921408404</v>
       </c>
       <c r="E1">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1456.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1456.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.440161536247584</v>
+        <v>1.1550612449646</v>
       </c>
       <c r="B1">
-        <v>1.585674651792278</v>
+        <v>2.483020067214966</v>
       </c>
       <c r="C1">
-        <v>1.874391889773315</v>
+        <v>4.298581600189209</v>
       </c>
       <c r="D1">
-        <v>3.313094921408404</v>
+        <v>3.499677896499634</v>
       </c>
       <c r="E1">
-        <v>15</v>
+        <v>1.230964303016663</v>
       </c>
     </row>
   </sheetData>
